--- a/data/testset.xlsx
+++ b/data/testset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="devices data" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="params_experiment" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="params_setup" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="devices data" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="params_experiment" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="params_setup" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t xml:space="preserve">time_Top P</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t xml:space="preserve">8 bar, first run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no comments</t>
   </si>
   <si>
     <t xml:space="preserve">8 bar empty</t>
@@ -319,6 +325,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -18200,10 +18312,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:ALR5"/>
+  <dimension ref="A1:ALR6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19282,27 +19394,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
+      <c r="A3" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="8" t="n">
-        <v>120</v>
-      </c>
-      <c r="E3" s="8" t="n">
-        <v>200</v>
-      </c>
-      <c r="F3" s="8" t="n">
-        <v>150</v>
-      </c>
-      <c r="G3" s="8" t="n">
-        <v>15</v>
-      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -19312,7 +19416,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>25</v>
@@ -19321,50 +19425,79 @@
         <v>26</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>150</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>15</v>
+      </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L4" s="8" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="8" t="n">
+        <v>300</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="8" t="n">
-        <v>500</v>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>600</v>
-      </c>
-      <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="K5" s="8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="M5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>600</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -19384,7 +19517,7 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -19416,16 +19549,16 @@
         <v>19</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19453,34 +19586,34 @@
         <v>18</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
